--- a/Python/tables/4_1_h_index_ranked_users.xlsx
+++ b/Python/tables/4_1_h_index_ranked_users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="648">
   <si>
     <t>user_id</t>
   </si>
@@ -1498,18 +1498,18 @@
     <t>[]</t>
   </si>
   <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[7, 4, 2]</t>
+  </si>
+  <si>
     <t>[1, 0]</t>
   </si>
   <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>[7, 4, 2]</t>
-  </si>
-  <si>
     <t>[3, 1]</t>
   </si>
   <si>
@@ -1525,13 +1525,13 @@
     <t>[1, 1]</t>
   </si>
   <si>
-    <t>[18, 18, 17, 16, 13, 12, 12, 11, 10, 10, 8]</t>
+    <t>[18, 18, 17, 16, 14, 14, 14, 14, 12, 10, 10]</t>
   </si>
   <si>
     <t>[2, 1]</t>
   </si>
   <si>
-    <t>[2]</t>
+    <t>[2, 0]</t>
   </si>
   <si>
     <t>0</t>
@@ -1543,424 +1543,421 @@
     <t>[{'code': 34, 'message': 'Sorry, that page does not exist.'}]</t>
   </si>
   <si>
-    <t>{'hu', 'br', 'id', 'it', 'es', 'jv', 'pt', 'nl', 'an', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'es', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'fr', 'es', 'an', 'en', 'unknown', 'ht', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'id', 'es', 'de', 'en', 'unknown', 'ru'}</t>
-  </si>
-  <si>
-    <t>{'oc', 'es', 'pt', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'oc', 'fr', 'es', 'ro', 'fi', 'pt', 'en', 'unknown', 'eo', 'et', 'ga', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'en', 'es'}</t>
-  </si>
-  <si>
-    <t>{'oc', 'fr', 'es', 'pt', 'en', 'unknown', 'eo', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'ja', 'da', 'br', 'it', 'es', 'de', 'no', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'es', 'pt', 'an', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'en', 'es', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'es', 'pt', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'br', 'es', 'an', 'en', 'unknown', 'fo', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'fr', 'es', 'de', 'an', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'hu', 'fr', 'es', 'ar', 'en', 'unknown', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'fr', 'es', 'pt', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'es', 'pt', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'mt', 'fr', 'es', 'la', 'pt', 'se', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'ja', 'es', 'de', 'sk', 'sw', 'nl', 'ca', 'an', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'da', 'lb', 'it', 'es', 'pt', 'ca', 'en', 'unknown', 'eo', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'es', 'ro', 'an', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'es', 'pt', 'an', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'es', 'gl', 'pt', 'ca', 'an', 'en', 'unknown', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'es', 'en', 'unknown', 'eo', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'lb', 'es', 'pt', 'ta', 'he', 'zh', 'sk', 'ca', 'en', 'unknown', 'fi', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'en', 'es', 'pt'}</t>
-  </si>
-  <si>
-    <t>{'fr', 'cs', 'es', 'ca', 'an', 'en', 'unknown', 'eo', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'hu', 'id', 'cs', 'es', 'ro', 'it', 'pt', 'ar', 'mr', 'zh', 'nl', 'an', 'en', 'unknown', 'fi', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'br', 'fr', 'unknown', 'es', 'en', 'pt', 'ga', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'hu', 'es', 'pt', 'an', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'oc', 'br', 'eu', 'it', 'es', 'gl', 'pt', 'en', 'unknown', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'en', 'es', 'mr'}</t>
-  </si>
-  <si>
-    <t>{'is', 'it', 'es', 'cs', 'pt', 'an', 'en', 'unknown', 'eo', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'fr', 'es', 'an', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'en', 'es', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'fr', 'br', 'it', 'es', 'an', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'fr', 'it', 'es', 'mg', 'nl', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'fr', 'it', 'es', 'de', 'pt', 'en', 'unknown', 'ga', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'fr', 'es', 'de', 'pt', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'fr', 'cs', 'es', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'fr', 'it', 'es', 'ro', 'pt', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'es', 'la', 'pt', 'ca', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'fr', 'eu', 'it', 'es', 'de', 'pt', 'zh', 'nl', 'ca', 'an', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'fr', 'it', 'es', 'gl', 'en', 'unknown', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'es', 'jv', 'lt', 'se', 'an', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'es', 'km', 'an', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'da', 'fr', 'id', 'es', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'mt', 'fr', 'id', 'it', 'es', 'pt', 'vi', 'ca', 'an', 'en', 'unknown', 'eo', 'gl'}</t>
+    <t>{'jv', 'nl', 'unknown', 'an', 'id', 'it', 'pt', 'es', 'en', 'hu', 'br'}</t>
+  </si>
+  <si>
+    <t>{'es', 'unknown', 'gl'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'gl', 'es', 'en', 'fr', 'ht'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'ru', 'id', 'de', 'en', 'es'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'pt', 'es', 'en', 'oc'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'et', 'gl', 'pt', 'es', 'en', 'oc', 'fr', 'ro', 'fi', 'rw', 'eo', 'ga'}</t>
+  </si>
+  <si>
+    <t>{'es', 'en', 'unknown'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'gl', 'pt', 'es', 'en', 'oc', 'fr', 'eo'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'it', 'es', 'en', 'no', 'de', 'br', 'ja', 'da'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'ca', 'pt', 'es', 'en'}</t>
+  </si>
+  <si>
+    <t>{'es', 'en', 'unknown', 'gl'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'gl', 'pt', 'es', 'en', 'fr', 'eo'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'es', 'en', 'br', 'eo', 'fo'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'gl', 'es', 'en', 'de', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'es', 'en', 'hu', 'eo'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'gl', 'pt', 'es', 'en', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'eu', 'unknown', 'gl', 'pt', 'es', 'en'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'gl', 'pt', 'es', 'en', 'mt', 'fr', 'la', 'se'}</t>
+  </si>
+  <si>
+    <t>{'nl', 'unknown', 'an', 'sw', 'ca', 'gl', 'sk', 'es', 'en', 'de', 'ja'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'ca', 'it', 'gl', 'pt', 'lb', 'es', 'en', 'eo', 'da'}</t>
+  </si>
+  <si>
+    <t>{'an', 'es', 'en', 'unknown'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'gl', 'pt', 'es', 'en'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'ca', 'gl', 'pt', 'es', 'en', 'eo'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'ca', 'es', 'en', 'eo'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'ca', 'gl', 'pt', 'lb', 'es', 'en', 'sk', 'zh', 'he', 'fi', 'ta'}</t>
+  </si>
+  <si>
+    <t>{'pt', 'es', 'en', 'unknown'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'ca', 'gl', 'es', 'en', 'fr', 'eo', 'cs'}</t>
+  </si>
+  <si>
+    <t>{'nl', 'unknown', 'ar', 'an', 'fi', 'id', 'it', 'gl', 'pt', 'es', 'en', 'mr', 'hu', 'ro', 'zh', 'cs'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'ca', 'pt', 'es', 'en', 'fr', 'br', 'ga'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'gl', 'pt', 'es', 'en', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'eu', 'unknown', 'ca', 'it', 'gl', 'pt', 'es', 'en', 'oc', 'eo'}</t>
+  </si>
+  <si>
+    <t>{'es', 'en', 'unknown', 'mr'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'ca', 'it', 'pt', 'es', 'en', 'oc', 'eo', 'cs'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'gl', 'es', 'en', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'ca', 'es', 'en', 'unknown'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'it', 'es', 'en', 'fr', 'br'}</t>
+  </si>
+  <si>
+    <t>{'nl', 'unknown', 'mg', 'it', 'es', 'en', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'it', 'gl', 'pt', 'es', 'en', 'de', 'ga'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'gl', 'pt', 'es', 'en', 'de', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'es', 'en', 'fr', 'cs'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'it', 'pt', 'es', 'en', 'fr', 'ro'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'ca', 'gl', 'pt', 'es', 'en', 'la'}</t>
+  </si>
+  <si>
+    <t>{'eu', 'nl', 'unknown', 'an', 'it', 'ca', 'gl', 'pt', 'es', 'en', 'de', 'fr', 'zh'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'it', 'gl', 'es', 'en', 'fr', 'eo'}</t>
+  </si>
+  <si>
+    <t>{'jv', 'unknown', 'an', 'es', 'en', 'se'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'gl', 'km', 'es', 'en'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'id', 'es', 'en', 'az', 'la', 'da'}</t>
+  </si>
+  <si>
+    <t>{'vi', 'unknown', 'an', 'id', 'it', 'ca', 'gl', 'pt', 'es', 'en', 'mt', 'fr', 'eo'}</t>
   </si>
   <si>
     <t>{'es'}</t>
   </si>
   <si>
-    <t>{'ja', 'fr', 'es', 'de', 'nl', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'fr', 'es', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'es', 'sv', 'an', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'en', 'es', 'eu'}</t>
-  </si>
-  <si>
-    <t>{'br', 'it', 'es', 'la', 'pt', 'gl', 'an', 'en', 'unknown', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'oc', 'es', 'an', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'af', 'it', 'es', 'de', 'sk', 'nl', 'an', 'en', 'unknown', 'ga', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'da', 'es', 'nl', 'en', 'unknown', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'it', 'es', 'gl', 'en', 'unknown', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'fr', 'id', 'es', 'gl', 'lt', 'nl', 'en', 'unknown', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'mt', 'br', 'fr', 'es', 'pt', 'ca', 'en', 'unknown', 'gl'}</t>
+    <t>{'nl', 'unknown', 'es', 'en', 'de', 'fr', 'ja'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'gl', 'es', 'en', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'es', 'en', 'sv'}</t>
+  </si>
+  <si>
+    <t>{'eu', 'es', 'en', 'unknown'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'ca', 'it', 'gl', 'pt', 'es', 'en', 'br', 'la'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'gl', 'es', 'en', 'oc'}</t>
+  </si>
+  <si>
+    <t>{'nl', 'unknown', 'an', 'it', 'gl', 'sk', 'es', 'en', 'de', 'af', 'ga'}</t>
+  </si>
+  <si>
+    <t>{'nl', 'unknown', 'ca', 'es', 'en', 'da'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'ca', 'it', 'gl', 'es', 'en'}</t>
+  </si>
+  <si>
+    <t>{'nl', 'unknown', 'id', 'ca', 'gl', 'es', 'en', 'fr', 'lt'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'ca', 'gl', 'pt', 'es', 'en', 'fr', 'mt', 'br'}</t>
   </si>
   <si>
     <t>{'es', 'gl'}</t>
   </si>
   <si>
-    <t>{'ja', 'ko', 'fr', 'id', 'es', 'de', 'pt', 'ar', 'zh', 'mg', 'nl', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'fr', 'es', 'pt', 'en', 'unknown', 'eo', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'en', 'unknown', 'es', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'fr', 'br', 'it', 'es', 'de', 'th', 'nl', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'es', 'gl', 'an', 'en', 'unknown', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'hu', 'es', 'la', 'an', 'en', 'unknown', 'fi', 'et'}</t>
-  </si>
-  <si>
-    <t>{'fr', 'es', 'ca', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'it', 'es', 'zh', 'en', 'unknown', 'eo', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'es', 'sk', 'en', 'unknown', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'fr', 'eu', 'es', 'gl', 'en', 'unknown', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'es', 'an', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'fr', 'cs', 'es', 'en', 'unknown', 'eo', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'ja', 'es', 'zh', 'sk', 'an', 'en', 'unknown', 'fi', 'ga', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'ja', 'ko', 'fr', 'it', 'es', 'de', 'la', 'pt', 'zh', 'en', 'unknown', 'ru'}</t>
-  </si>
-  <si>
-    <t>{'fr', 'es', 'en', 'unknown', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'es', 'se', 'en', 'unknown', 'gl'}</t>
+    <t>{'nl', 'unknown', 'ar', 'mg', 'id', 'pt', 'es', 'en', 'de', 'fr', 'ko', 'zh', 'ja'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'ru', 'es', 'en', 'fr', 'tr', 'ja'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'ca', 'gl', 'es', 'en'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'es', 'en', 'hu', 'fi', 'la'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'ca', 'gl', 'es', 'en', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'ca', 'it', 'es', 'en', 'zh', 'eo'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'ca', 'sk', 'es', 'en'}</t>
+  </si>
+  <si>
+    <t>{'eu', 'unknown', 'ca', 'gl', 'es', 'en', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'gl', 'es', 'en'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'gl', 'es', 'en', 'fr', 'eo', 'cs'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'fi', 'an', 'gl', 'sk', 'es', 'en', 'zh', 'ga', 'ja'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'ru', 'it', 'pt', 'de', 'en', 'es', 'fr', 'ko', 'zh', 'la', 'ja'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'es', 'en', 'fr', 'eo'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'gl', 'es', 'en', 'se'}</t>
   </si>
   <si>
     <t>set()</t>
   </si>
   <si>
-    <t>{'en', 'es', 'fr'}</t>
-  </si>
-  <si>
-    <t>{'oc', 'mt', 'cs', 'es', 'pt', 'an', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'es', 'pt', 'zh', 'en', 'unknown', 'pl'}</t>
-  </si>
-  <si>
-    <t>{'es', 'zh', 'nl', 'en', 'unknown', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'af', 'fr', 'es', 'la', 'an', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'en', 'es'}</t>
-  </si>
-  <si>
-    <t>{'es', 'tl', 'zh', 'an', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'it', 'es', 'pt', 'en', 'unknown', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'mt', 'fr', 'it', 'es', 'pt', 'sk', 'ca', 'an', 'en', 'unknown', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'it', 'es', 'gl', 'mg', 'an', 'en', 'unknown', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'es', 'pt', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'it', 'es', 'tl', 'gl', 'pt', 'de', 'se', 'zh', 'sw', 'an', 'en', 'unknown', 'ga', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'it', 'es', 'gl', 'la', 'pt', 'de', 'nl', 'en', 'unknown', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'it', 'en', 'unknown', 'et'}</t>
-  </si>
-  <si>
-    <t>{'br', 'eu', 'it', 'es', 'gl', 'an', 'en', 'unknown', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'oc', 'mt', 'es', 'nl', 'en', 'unknown', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'es', 'pt', 'en', 'unknown', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'hu', 'it', 'es', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'an', 'en', 'es'}</t>
-  </si>
-  <si>
-    <t>{'es', 'nl', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'es', 'jv', 'pt', 'mg', 'en', 'unknown', 'eo', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'hu', 'ja', 'fr', 'es', 'en', 'unknown', 'fi', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'ja', 'fr', 'es', 'de', 'pt', 'en', 'unknown', 'si', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'es', 'pt', 'mr', 'an', 'en', 'unknown', 'eo', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'en', 'es', 'pl'}</t>
-  </si>
-  <si>
-    <t>{'hu', 'fr', 'eu', 'es', 'de', 'pt', 'lt', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'oc', 'es', 'pt', 'an', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'es', 'gl', 'pt', 'lt', 'an', 'en', 'unknown', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'an', 'en', 'es', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'oc', 'es', 'an', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'es', 'pt', 'zh', 'ca', 'en', 'unknown', 'gl'}</t>
+    <t>{'es', 'en', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'gl', 'pt', 'es', 'en', 'oc', 'mt', 'cs'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'pt', 'es', 'en', 'zh', 'pl'}</t>
+  </si>
+  <si>
+    <t>{'nl', 'unknown', 'ca', 'es', 'en', 'zh'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'gl', 'es', 'en', 'fr', 'af', 'la'}</t>
+  </si>
+  <si>
+    <t>{'es', 'en'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'gl', 'pt', 'es', 'en', 'tl', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'ca', 'it', 'pt', 'es', 'en'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'it', 'ca', 'pt', 'sk', 'es', 'en', 'mt', 'fr', 'eo'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'mg', 'ca', 'it', 'gl', 'es', 'en'}</t>
+  </si>
+  <si>
+    <t>{'eu', 'unknown', 'pt', 'es', 'en'}</t>
+  </si>
+  <si>
+    <t>{'eu', 'unknown', 'an', 'sw', 'it', 'gl', 'pt', 'es', 'en', 'tl', 'de', 'zh', 'eo', 'ga', 'se'}</t>
+  </si>
+  <si>
+    <t>{'nl', 'unknown', 'ca', 'it', 'gl', 'pt', 'es', 'en', 'de', 'la'}</t>
+  </si>
+  <si>
+    <t>{'eu', 'et', 'unknown', 'it', 'en'}</t>
+  </si>
+  <si>
+    <t>{'eu', 'unknown', 'an', 'it', 'ca', 'gl', 'es', 'en', 'br'}</t>
+  </si>
+  <si>
+    <t>{'nl', 'unknown', 'ca', 'es', 'en', 'oc', 'mt'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'ca', 'pt', 'es', 'en'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'it', 'gl', 'es', 'en', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'an', 'es', 'en'}</t>
+  </si>
+  <si>
+    <t>{'nl', 'unknown', 'gl', 'es', 'en'}</t>
+  </si>
+  <si>
+    <t>{'jv', 'unknown', 'mg', 'gl', 'pt', 'es', 'en', 'eo'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'ca', 'gl', 'es', 'en', 'hu', 'fr', 'fi', 'ja'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'si', 'ca', 'pt', 'es', 'en', 'de', 'fr', 'ja'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'gl', 'pt', 'es', 'en', 'mr', 'eo'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'gl', 'pt', 'es', 'en'}</t>
+  </si>
+  <si>
+    <t>{'es', 'en', 'unknown', 'pl'}</t>
+  </si>
+  <si>
+    <t>{'eu', 'unknown', 'gl', 'pt', 'es', 'en', 'de', 'lt', 'fr', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'pt', 'es', 'en', 'oc'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'ca', 'gl', 'pt', 'es', 'en', 'lt'}</t>
+  </si>
+  <si>
+    <t>{'an', 'es', 'en', 'ca'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'es', 'en', 'oc'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'ca', 'gl', 'pt', 'es', 'en', 'zh'}</t>
   </si>
   <si>
     <t>{'es', 'ca'}</t>
   </si>
   <si>
-    <t>{'eu', 'cs', 'es', 'cy', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'fr', 'eu', 'es', 'an', 'en', 'unknown', 'fi'}</t>
-  </si>
-  <si>
-    <t>{'af', 'is', 'es', 'pt', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'id', 'it', 'es', 'pt', 'lt', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'en', 'es', 'it', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'en', 'unknown', 'la'}</t>
-  </si>
-  <si>
-    <t>{'it', 'es', 'pl', 'en', 'unknown', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'fr', 'es', 'gl', 'pt', 'sl', 'en', 'unknown', 'fo', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'da', 'la', 'pt', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'oc', 'es', 'lt', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'en', 'unknown', 'es', 'pt'}</t>
-  </si>
-  <si>
-    <t>{'hu', 'es', 'gl', 'pt', 'sw', 'en', 'unknown', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'da', 'fr', 'it', 'es', 'de', 'fa', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'ja', 'de', 'la', 'tr', 'no', 'en', 'unknown', 'fi', 'sq', 'fo', 'az'}</t>
-  </si>
-  <si>
-    <t>{'es', 'zu', 'gl', 'en', 'unknown', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'fr', 'unknown', 'es', 'sv', 'de', 'nl', 'en', 'pl'}</t>
-  </si>
-  <si>
-    <t>{'id', 'mr', 'en', 'unknown', 'tr'}</t>
-  </si>
-  <si>
-    <t>{'es', 'pt', 'ca', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'it', 'es', 'gl', 'zh', 'an', 'en', 'unknown', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'ja', 'af', 'fr', 'br', 'it', 'tl', 'de', 'sl', 'zh', 'no', 'en', 'unknown', 'et'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'hu', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'af', 'fr', 'de', 'vi', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'af', 'fr', 'it', 'es', 'tl', 'de', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'ko', 'fr', 'it', 'es', 'pt', 'en', 'unknown', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'hu', 'da', 'fr', 'it', 'es', 'de', 'en', 'unknown', 'ru', 'tr'}</t>
-  </si>
-  <si>
-    <t>{'hu', 'es', 'pt', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'oc', 'es', 'gl', 'pt', 'ca', 'en', 'unknown', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'hu', 'es', 'la', 'pt', 'zh', 'an', 'en', 'unknown', 'ru'}</t>
-  </si>
-  <si>
-    <t>{'es', 'zh', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'hu', 'fr', 'cs', 'es', 'tl', 'la', 'lt', 'mr', 'sk', 'en', 'unknown', 'gl'}</t>
+    <t>{'eu', 'unknown', 'gl', 'es', 'en', 'cy', 'cs'}</t>
+  </si>
+  <si>
+    <t>{'eu', 'unknown', 'an', 'es', 'en', 'fr', 'fi'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'gl', 'pt', 'es', 'en', 'is', 'af'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'id', 'it', 'pt', 'es', 'en', 'lt'}</t>
+  </si>
+  <si>
+    <t>{'es', 'en', 'ca', 'it'}</t>
+  </si>
+  <si>
+    <t>{'en', 'la', 'unknown'}</t>
+  </si>
+  <si>
+    <t>{'eu', 'unknown', 'it', 'es', 'en', 'eo', 'pl'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'gl', 'pt', 'es', 'en', 'sl', 'fr', 'eo', 'fo'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'pt', 'en', 'zh', 'la'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'gl', 'es', 'en', 'oc', 'lt'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'sw', 'gl', 'pt', 'es', 'en', 'hu', 'eo'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'it', 'es', 'en', 'de', 'fa', 'fr', 'da'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'de', 'en', 'no', 'az', 'fi', 'tr', 'la', 'ja', 'fo'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'ca', 'gl', 'zu', 'es', 'en'}</t>
+  </si>
+  <si>
+    <t>{'nl', 'unknown', 'es', 'en', 'de', 'fr', 'sv', 'pl'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'gl', 'es', 'en', 'ro'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'en', 'zh', 'tr', 'pl'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'ca', 'gl', 'pt', 'es', 'en'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'it', 'ca', 'gl', 'es', 'en', 'zh'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'et', 'af', 'it', 'de', 'en', 'no', 'tl', 'fr', 'sl', 'zh', 'br', 'ja'}</t>
+  </si>
+  <si>
+    <t>{'es', 'en', 'unknown', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'vi', 'unknown', 'de', 'en', 'fr', 'af'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'it', 'de', 'en', 'tl', 'es', 'fr', 'af'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'it', 'pt', 'de', 'en', 'es', 'fr', 'eo', 'ja'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'ru', 'it', 'de', 'en', 'es', 'fr', 'hu', 'tr', 'da'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'gl', 'pt', 'es', 'en', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'ca', 'gl', 'pt', 'es', 'en', 'oc', 'eo'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'an', 'ru', 'pt', 'es', 'en', 'hu', 'zh', 'la'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'gl', 'es', 'en', 'zh'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'cs', 'ca', 'gl', 'sk', 'es', 'en', 'he', 'mr', 'hu', 'lt', 'fr', 'tl', 'la'}</t>
   </si>
 </sst>
 </file>
@@ -2443,7 +2440,7 @@
         <v>200</v>
       </c>
       <c r="F4">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2592,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J8" t="s">
         <v>506</v>
@@ -2790,7 +2787,7 @@
         <v>343</v>
       </c>
       <c r="E14">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3916,13 +3913,13 @@
         <v>0.025</v>
       </c>
       <c r="G46">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J46" t="s">
         <v>506</v>
@@ -4368,10 +4365,10 @@
         <v>200</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -4403,7 +4400,7 @@
         <v>200</v>
       </c>
       <c r="F60">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -4412,7 +4409,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J60" t="s">
         <v>506</v>
@@ -4645,7 +4642,7 @@
         <v>396</v>
       </c>
       <c r="E67">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -4803,7 +4800,7 @@
         <v>506</v>
       </c>
       <c r="K71" t="s">
-        <v>571</v>
+        <v>520</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4838,7 +4835,7 @@
         <v>506</v>
       </c>
       <c r="K72" t="s">
-        <v>572</v>
+        <v>519</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4858,7 +4855,7 @@
         <v>200</v>
       </c>
       <c r="F73">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -4873,7 +4870,7 @@
         <v>506</v>
       </c>
       <c r="K73" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4908,7 +4905,7 @@
         <v>506</v>
       </c>
       <c r="K74" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4943,7 +4940,7 @@
         <v>506</v>
       </c>
       <c r="K75" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4978,7 +4975,7 @@
         <v>506</v>
       </c>
       <c r="K76" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -5013,7 +5010,7 @@
         <v>506</v>
       </c>
       <c r="K77" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -5048,7 +5045,7 @@
         <v>506</v>
       </c>
       <c r="K78" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -5083,7 +5080,7 @@
         <v>506</v>
       </c>
       <c r="K79" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -5153,7 +5150,7 @@
         <v>506</v>
       </c>
       <c r="K81" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -5182,13 +5179,13 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="J82" t="s">
         <v>506</v>
       </c>
       <c r="K82" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -5223,7 +5220,7 @@
         <v>506</v>
       </c>
       <c r="K83" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -5258,7 +5255,7 @@
         <v>506</v>
       </c>
       <c r="K84" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -5293,7 +5290,7 @@
         <v>506</v>
       </c>
       <c r="K85" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -5313,7 +5310,7 @@
         <v>200</v>
       </c>
       <c r="F86">
-        <v>0.235</v>
+        <v>0.24</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -5328,7 +5325,7 @@
         <v>506</v>
       </c>
       <c r="K86" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -5363,7 +5360,7 @@
         <v>507</v>
       </c>
       <c r="K87" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -5418,7 +5415,7 @@
         <v>200</v>
       </c>
       <c r="F89">
-        <v>0.355</v>
+        <v>0.36</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -5433,7 +5430,7 @@
         <v>506</v>
       </c>
       <c r="K89" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -5538,7 +5535,7 @@
         <v>506</v>
       </c>
       <c r="K92" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -5573,7 +5570,7 @@
         <v>506</v>
       </c>
       <c r="K93" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -5590,10 +5587,10 @@
         <v>423</v>
       </c>
       <c r="E94">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F94">
-        <v>0.005025125628140704</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -5608,7 +5605,7 @@
         <v>506</v>
       </c>
       <c r="K94" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5643,7 +5640,7 @@
         <v>506</v>
       </c>
       <c r="K95" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5663,7 +5660,7 @@
         <v>200</v>
       </c>
       <c r="F96">
-        <v>0.41</v>
+        <v>0.405</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -5678,7 +5675,7 @@
         <v>506</v>
       </c>
       <c r="K96" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5713,7 +5710,7 @@
         <v>506</v>
       </c>
       <c r="K97" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5748,7 +5745,7 @@
         <v>506</v>
       </c>
       <c r="K98" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5818,7 +5815,7 @@
         <v>506</v>
       </c>
       <c r="K100" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5853,7 +5850,7 @@
         <v>506</v>
       </c>
       <c r="K101" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5888,7 +5885,7 @@
         <v>506</v>
       </c>
       <c r="K102" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5923,7 +5920,7 @@
         <v>508</v>
       </c>
       <c r="K103" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -5958,7 +5955,7 @@
         <v>506</v>
       </c>
       <c r="K104" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5993,7 +5990,7 @@
         <v>506</v>
       </c>
       <c r="K105" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -6013,10 +6010,10 @@
         <v>200</v>
       </c>
       <c r="F106">
-        <v>0.065</v>
+        <v>0.06</v>
       </c>
       <c r="G106">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="H106">
         <v>10</v>
@@ -6028,7 +6025,7 @@
         <v>506</v>
       </c>
       <c r="K106" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -6063,7 +6060,7 @@
         <v>506</v>
       </c>
       <c r="K107" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -6098,7 +6095,7 @@
         <v>506</v>
       </c>
       <c r="K108" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -6133,7 +6130,7 @@
         <v>506</v>
       </c>
       <c r="K109" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -6168,7 +6165,7 @@
         <v>506</v>
       </c>
       <c r="K110" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -6203,7 +6200,7 @@
         <v>506</v>
       </c>
       <c r="K111" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -6238,7 +6235,7 @@
         <v>506</v>
       </c>
       <c r="K112" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -6273,7 +6270,7 @@
         <v>506</v>
       </c>
       <c r="K113" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -6308,7 +6305,7 @@
         <v>506</v>
       </c>
       <c r="K114" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -6343,7 +6340,7 @@
         <v>506</v>
       </c>
       <c r="K115" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -6378,7 +6375,7 @@
         <v>506</v>
       </c>
       <c r="K116" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -6413,7 +6410,7 @@
         <v>506</v>
       </c>
       <c r="K117" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6448,7 +6445,7 @@
         <v>506</v>
       </c>
       <c r="K118" t="s">
-        <v>520</v>
+        <v>609</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6468,7 +6465,7 @@
         <v>200</v>
       </c>
       <c r="F119">
-        <v>0.57</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -6483,7 +6480,7 @@
         <v>506</v>
       </c>
       <c r="K119" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -6518,7 +6515,7 @@
         <v>506</v>
       </c>
       <c r="K120" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -6553,7 +6550,7 @@
         <v>506</v>
       </c>
       <c r="K121" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -6588,7 +6585,7 @@
         <v>506</v>
       </c>
       <c r="K122" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -6623,7 +6620,7 @@
         <v>506</v>
       </c>
       <c r="K123" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -6658,7 +6655,7 @@
         <v>506</v>
       </c>
       <c r="K124" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6693,7 +6690,7 @@
         <v>506</v>
       </c>
       <c r="K125" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -6748,7 +6745,7 @@
         <v>200</v>
       </c>
       <c r="F127">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -6763,7 +6760,7 @@
         <v>506</v>
       </c>
       <c r="K127" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -6798,7 +6795,7 @@
         <v>506</v>
       </c>
       <c r="K128" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -6868,7 +6865,7 @@
         <v>506</v>
       </c>
       <c r="K130" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -6888,7 +6885,7 @@
         <v>199</v>
       </c>
       <c r="F131">
-        <v>0.08542713567839195</v>
+        <v>0.09547738693467336</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -6903,7 +6900,7 @@
         <v>506</v>
       </c>
       <c r="K131" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6938,7 +6935,7 @@
         <v>506</v>
       </c>
       <c r="K132" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6973,7 +6970,7 @@
         <v>506</v>
       </c>
       <c r="K133" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -7008,7 +7005,7 @@
         <v>506</v>
       </c>
       <c r="K134" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -7043,7 +7040,7 @@
         <v>506</v>
       </c>
       <c r="K135" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -7078,7 +7075,7 @@
         <v>506</v>
       </c>
       <c r="K136" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -7113,7 +7110,7 @@
         <v>506</v>
       </c>
       <c r="K137" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -7148,7 +7145,7 @@
         <v>506</v>
       </c>
       <c r="K138" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -7177,13 +7174,13 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="J139" t="s">
         <v>506</v>
       </c>
       <c r="K139" t="s">
-        <v>629</v>
+        <v>534</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -7218,7 +7215,7 @@
         <v>506</v>
       </c>
       <c r="K140" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -7238,7 +7235,7 @@
         <v>200</v>
       </c>
       <c r="F141">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -7253,7 +7250,7 @@
         <v>506</v>
       </c>
       <c r="K141" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -7288,7 +7285,7 @@
         <v>506</v>
       </c>
       <c r="K142" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -7308,7 +7305,7 @@
         <v>200</v>
       </c>
       <c r="F143">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -7323,7 +7320,7 @@
         <v>506</v>
       </c>
       <c r="K143" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -7358,7 +7355,7 @@
         <v>506</v>
       </c>
       <c r="K144" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -7393,7 +7390,7 @@
         <v>506</v>
       </c>
       <c r="K145" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -7413,10 +7410,10 @@
         <v>200</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -7428,7 +7425,7 @@
         <v>506</v>
       </c>
       <c r="K146" t="s">
-        <v>519</v>
+        <v>633</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -7463,7 +7460,7 @@
         <v>506</v>
       </c>
       <c r="K147" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -7498,7 +7495,7 @@
         <v>506</v>
       </c>
       <c r="K148" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -7533,7 +7530,7 @@
         <v>506</v>
       </c>
       <c r="K149" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -7568,7 +7565,7 @@
         <v>506</v>
       </c>
       <c r="K150" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -7603,7 +7600,7 @@
         <v>506</v>
       </c>
       <c r="K151" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -7638,7 +7635,7 @@
         <v>506</v>
       </c>
       <c r="K152" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -7673,7 +7670,7 @@
         <v>506</v>
       </c>
       <c r="K153" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -7708,7 +7705,7 @@
         <v>506</v>
       </c>
       <c r="K154" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -7728,7 +7725,7 @@
         <v>200</v>
       </c>
       <c r="F155">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -7743,7 +7740,7 @@
         <v>506</v>
       </c>
       <c r="K155" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -7778,7 +7775,7 @@
         <v>506</v>
       </c>
       <c r="K156" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -7813,7 +7810,7 @@
         <v>506</v>
       </c>
       <c r="K157" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -7848,7 +7845,7 @@
         <v>506</v>
       </c>
       <c r="K158" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -7883,7 +7880,7 @@
         <v>506</v>
       </c>
       <c r="K159" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -7953,7 +7950,7 @@
         <v>506</v>
       </c>
       <c r="K161" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -7988,7 +7985,7 @@
         <v>506</v>
       </c>
       <c r="K162" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>

--- a/Python/tables/4_1_h_index_ranked_users.xlsx
+++ b/Python/tables/4_1_h_index_ranked_users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="632">
   <si>
     <t>user_id</t>
   </si>
@@ -49,9 +49,6 @@
     <t>100280852</t>
   </si>
   <si>
-    <t>106036152</t>
-  </si>
-  <si>
     <t>11025592</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>1327337976</t>
   </si>
   <si>
-    <t>1356568904</t>
-  </si>
-  <si>
     <t>1397462048</t>
   </si>
   <si>
@@ -196,9 +190,6 @@
     <t>2286422184</t>
   </si>
   <si>
-    <t>230403822</t>
-  </si>
-  <si>
     <t>236050524</t>
   </si>
   <si>
@@ -208,9 +199,6 @@
     <t>2412794966</t>
   </si>
   <si>
-    <t>2416199407</t>
-  </si>
-  <si>
     <t>243456080</t>
   </si>
   <si>
@@ -421,9 +409,6 @@
     <t>697061735593811968</t>
   </si>
   <si>
-    <t>710536251666010112</t>
-  </si>
-  <si>
     <t>73328095</t>
   </si>
   <si>
@@ -466,9 +451,6 @@
     <t>8258432</t>
   </si>
   <si>
-    <t>83324697</t>
-  </si>
-  <si>
     <t>841313422755037184</t>
   </si>
   <si>
@@ -532,9 +514,6 @@
     <t>rodrigo santana</t>
   </si>
   <si>
-    <t xml:space="preserve">eduardo elua  </t>
-  </si>
-  <si>
     <t>miguel perez alvarez</t>
   </si>
   <si>
@@ -571,9 +550,6 @@
     <t>beatriz pacheco</t>
   </si>
   <si>
-    <t>startup burgos</t>
-  </si>
-  <si>
     <t>angel fernandez</t>
   </si>
   <si>
@@ -679,9 +655,6 @@
     <t>jorge</t>
   </si>
   <si>
-    <t>andy sugden</t>
-  </si>
-  <si>
     <t>eva</t>
   </si>
   <si>
@@ -691,9 +664,6 @@
     <t>carlos fdzvillaverde</t>
   </si>
   <si>
-    <t>alex barreto</t>
-  </si>
-  <si>
     <t>jose</t>
   </si>
   <si>
@@ -904,9 +874,6 @@
     <t>monica cabanillas</t>
   </si>
   <si>
-    <t>salud big data</t>
-  </si>
-  <si>
     <t>aitor moreno</t>
   </si>
   <si>
@@ -949,9 +916,6 @@
     <t>nabor garrido valle</t>
   </si>
   <si>
-    <t>fernando cuenca</t>
-  </si>
-  <si>
     <t>learn python</t>
   </si>
   <si>
@@ -1012,9 +976,6 @@
     <t>rodrigofs10</t>
   </si>
   <si>
-    <t>eelua</t>
-  </si>
-  <si>
     <t>Maperez324</t>
   </si>
   <si>
@@ -1051,9 +1012,6 @@
     <t>beatyesth</t>
   </si>
   <si>
-    <t>StartupBurgos</t>
-  </si>
-  <si>
     <t>afercuello</t>
   </si>
   <si>
@@ -1159,9 +1117,6 @@
     <t>jorgeprg97</t>
   </si>
   <si>
-    <t>AndySugs</t>
-  </si>
-  <si>
     <t>MissHu</t>
   </si>
   <si>
@@ -1171,9 +1126,6 @@
     <t>C_FVillaverde</t>
   </si>
   <si>
-    <t>shakamunyi</t>
-  </si>
-  <si>
     <t>JoseCapel</t>
   </si>
   <si>
@@ -1384,9 +1336,6 @@
     <t>moncabacas</t>
   </si>
   <si>
-    <t>SaludBigData</t>
-  </si>
-  <si>
     <t>aitmoreno</t>
   </si>
   <si>
@@ -1429,9 +1378,6 @@
     <t>NaborGarrido</t>
   </si>
   <si>
-    <t>fernandocuenca</t>
-  </si>
-  <si>
     <t>learn_pythonx</t>
   </si>
   <si>
@@ -1498,39 +1444,39 @@
     <t>[]</t>
   </si>
   <si>
+    <t>[4]</t>
+  </si>
+  <si>
     <t>[1]</t>
   </si>
   <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>[7, 4, 2]</t>
+    <t>[7, 4, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[16]</t>
+  </si>
+  <si>
+    <t>[4, 1]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[1, 1]</t>
+  </si>
+  <si>
+    <t>[22, 21, 19, 16, 15, 15, 15, 14, 14, 12, 11, 11]</t>
+  </si>
+  <si>
+    <t>[2, 1]</t>
   </si>
   <si>
     <t>[1, 0]</t>
   </si>
   <si>
-    <t>[3, 1]</t>
-  </si>
-  <si>
-    <t>[16]</t>
-  </si>
-  <si>
-    <t>[4, 1]</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>[1, 1]</t>
-  </si>
-  <si>
-    <t>[18, 18, 17, 16, 14, 14, 14, 14, 12, 10, 10]</t>
-  </si>
-  <si>
-    <t>[2, 1]</t>
-  </si>
-  <si>
     <t>[2, 0]</t>
   </si>
   <si>
@@ -1543,421 +1489,427 @@
     <t>[{'code': 34, 'message': 'Sorry, that page does not exist.'}]</t>
   </si>
   <si>
-    <t>{'jv', 'nl', 'unknown', 'an', 'id', 'it', 'pt', 'es', 'en', 'hu', 'br'}</t>
-  </si>
-  <si>
-    <t>{'es', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'gl', 'es', 'en', 'fr', 'ht'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ru', 'id', 'de', 'en', 'es'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'pt', 'es', 'en', 'oc'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'et', 'gl', 'pt', 'es', 'en', 'oc', 'fr', 'ro', 'fi', 'rw', 'eo', 'ga'}</t>
-  </si>
-  <si>
-    <t>{'es', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'pt', 'es', 'en', 'oc', 'fr', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'it', 'es', 'en', 'no', 'de', 'br', 'ja', 'da'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'ca', 'pt', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'es', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'pt', 'es', 'en', 'fr', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'es', 'en', 'br', 'eo', 'fo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'gl', 'es', 'en', 'de', 'fr'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'es', 'en', 'hu', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'pt', 'es', 'en', 'fr'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'unknown', 'gl', 'pt', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'pt', 'es', 'en', 'mt', 'fr', 'la', 'se'}</t>
-  </si>
-  <si>
-    <t>{'nl', 'unknown', 'an', 'sw', 'ca', 'gl', 'sk', 'es', 'en', 'de', 'ja'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'it', 'gl', 'pt', 'lb', 'es', 'en', 'eo', 'da'}</t>
-  </si>
-  <si>
-    <t>{'an', 'es', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'gl', 'pt', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'ca', 'gl', 'pt', 'es', 'en', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'es', 'en', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'gl', 'pt', 'lb', 'es', 'en', 'sk', 'zh', 'he', 'fi', 'ta'}</t>
-  </si>
-  <si>
-    <t>{'pt', 'es', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'ca', 'gl', 'es', 'en', 'fr', 'eo', 'cs'}</t>
-  </si>
-  <si>
-    <t>{'nl', 'unknown', 'ar', 'an', 'fi', 'id', 'it', 'gl', 'pt', 'es', 'en', 'mr', 'hu', 'ro', 'zh', 'cs'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'pt', 'es', 'en', 'fr', 'br', 'ga'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'gl', 'pt', 'es', 'en', 'hu'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'unknown', 'ca', 'it', 'gl', 'pt', 'es', 'en', 'oc', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'es', 'en', 'unknown', 'mr'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'ca', 'it', 'pt', 'es', 'en', 'oc', 'eo', 'cs'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'gl', 'es', 'en', 'fr'}</t>
-  </si>
-  <si>
-    <t>{'ca', 'es', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'it', 'es', 'en', 'fr', 'br'}</t>
-  </si>
-  <si>
-    <t>{'nl', 'unknown', 'mg', 'it', 'es', 'en', 'fr'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'it', 'gl', 'pt', 'es', 'en', 'de', 'ga'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'pt', 'es', 'en', 'de', 'fr'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'es', 'en', 'fr', 'cs'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'it', 'pt', 'es', 'en', 'fr', 'ro'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'gl', 'pt', 'es', 'en', 'la'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'nl', 'unknown', 'an', 'it', 'ca', 'gl', 'pt', 'es', 'en', 'de', 'fr', 'zh'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'it', 'gl', 'es', 'en', 'fr', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'jv', 'unknown', 'an', 'es', 'en', 'se'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'gl', 'km', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'id', 'es', 'en', 'az', 'la', 'da'}</t>
-  </si>
-  <si>
-    <t>{'vi', 'unknown', 'an', 'id', 'it', 'ca', 'gl', 'pt', 'es', 'en', 'mt', 'fr', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'es'}</t>
-  </si>
-  <si>
-    <t>{'nl', 'unknown', 'es', 'en', 'de', 'fr', 'ja'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'es', 'en', 'fr'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'es', 'en', 'sv'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'es', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'ca', 'it', 'gl', 'pt', 'es', 'en', 'br', 'la'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'gl', 'es', 'en', 'oc'}</t>
-  </si>
-  <si>
-    <t>{'nl', 'unknown', 'an', 'it', 'gl', 'sk', 'es', 'en', 'de', 'af', 'ga'}</t>
-  </si>
-  <si>
-    <t>{'nl', 'unknown', 'ca', 'es', 'en', 'da'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'it', 'gl', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'nl', 'unknown', 'id', 'ca', 'gl', 'es', 'en', 'fr', 'lt'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'gl', 'pt', 'es', 'en', 'fr', 'mt', 'br'}</t>
+    <t>{'en', 'it', 'nl', 'unknown', 'es', 'br', 'id', 'jv', 'pt', 'an', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'it', 'unknown', 'cs', 'eo', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'ru', 'de', 'id'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'es', 'oc', 'pt'}</t>
   </si>
   <si>
     <t>{'es', 'gl'}</t>
   </si>
   <si>
-    <t>{'nl', 'unknown', 'ar', 'mg', 'id', 'pt', 'es', 'en', 'de', 'fr', 'ko', 'zh', 'ja'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ru', 'es', 'en', 'fr', 'tr', 'ja'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'ca', 'gl', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'es', 'en', 'hu', 'fi', 'la'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'gl', 'es', 'en', 'fr'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'it', 'es', 'en', 'zh', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'sk', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'unknown', 'ca', 'gl', 'es', 'en', 'fr'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'gl', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'es', 'en', 'fr', 'eo', 'cs'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'fi', 'an', 'gl', 'sk', 'es', 'en', 'zh', 'ga', 'ja'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ru', 'it', 'pt', 'de', 'en', 'es', 'fr', 'ko', 'zh', 'la', 'ja'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'es', 'en', 'fr', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'es', 'en', 'se'}</t>
+    <t>{'en', 'eo', 'fi', 'gl', 'unknown', 'et', 'es', 'oc', 'ro', 'rw', 'pt', 'fr', 'ga'}</t>
+  </si>
+  <si>
+    <t>{'en', 'es', 'unknown'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'pt', 'oc', 'eo', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'da', 'it', 'unknown', 'no', 'de', 'ja', 'br', 'es', 'fi'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'unknown', 'pt', 'sw', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'es', 'unknown'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'gl', 'unknown', 'fr', 'pt', 'eo', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'br', 'fo', 'eo', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'pt', 'es', 'unknown'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'es', 'pt', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'eu', 'gl', 'unknown', 'es', 'pt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'mr', 'gl', 'unknown', 'fr', 'se', 'la', 'pt', 'es', 'mt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'nl', 'gl', 'unknown', 'de', 'ja', 'sk', 'sw', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'it', 'lb', 'gl', 'unknown', 'es', 'pt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'eo', 'es', 'unknown'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'oc', 'es'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'de', 'is', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'es', 'eo', 'ca'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'lb', 'gl', 'unknown', 'he', 'ta', 'es', 'sk', 'zh', 'pt', 'fi'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'pt', 'en', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'gl', 'unknown', 'cs', 'an', 'eo', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'fi', 'nl', 'gl', 'mr', 'unknown', 'pt', 'ar', 'id', 'cs', 'zh', 'ro', 'es', 'an', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'fr', 'unknown', 'es', 'br', 'pt', 'fi', 'ga'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'es', 'pt', 'an', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'eu', 'unknown', 'de', 'pt', 'es'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'en', 'es', 'mr'}</t>
+  </si>
+  <si>
+    <t>{'qu', 'en', 'ca', 'it', 'unknown', 'la', 'pt', 'cs', 'oc', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'an', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'es', 'unknown'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'unknown', 'br', 'an', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'es', 'gl'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'nl', 'unknown', 'mg', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'es', 'gl'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'gl', 'unknown', 'es', 'id', 'fo', 'sw', 'eo', 'pt', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'de', 'lt', 'pt', 'es', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'cs', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'unknown', 'es', 'br', 'ro', 'pt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'gl', 'unknown', 'la', 'pt', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'it', 'eu', 'nl', 'gl', 'unknown', 'fr', 'de', 'pt', 'zh', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'gl', 'unknown', 'eo', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'es', 'jv', 'ca'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'km', 'unknown', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'it', 'gl', 'unknown', 'fr', 'pt', 'id', 'an', 'vi', 'eo', 'es', 'mt'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'fr', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'en', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'es', 'unknown', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'es', 'eu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'gl', 'unknown', 'es', 'la', 'pt', 'br', 'ca', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'oc', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'gl', 'unknown', 'de', 'af', 'sk', 'es', 'an', 'ga'}</t>
+  </si>
+  <si>
+    <t>{'en', 'da', 'nl', 'unknown', 'es', 'ca'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'gl', 'unknown', 'es', 'ca'}</t>
+  </si>
+  <si>
+    <t>{'en', 'cy', 'nl', 'gl', 'unknown', 'es', 'pt', 'id', 'ca', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'mt', 'es', 'pt', 'br', 'ca', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'nl', 'unknown', 'de', 'ko', 'mg', 'ja', 'pt', 'ar', 'id', 'zh', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'pt', 'eo', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'eo', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'nl', 'unknown', 'ru', 'de', 'ko', 'ja', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'nl', 'unknown', 'es', 'pt', 'fi', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'es', 'ca', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'unknown', 'es', 'zh', 'eo', 'ca'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'es', 'sk', 'ca'}</t>
+  </si>
+  <si>
+    <t>{'en', 'eu', 'gl', 'unknown', 'es', 'ca', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'es', 'cs', 'eo', 'ca', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'et', 'af', 'ja', 'zh', 'es', 'fi'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'unknown', 'ru', 'de', 'la', 'ko', 'ja', 'pt', 'zh', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'fr', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'se', 'es'}</t>
   </si>
   <si>
     <t>set()</t>
   </si>
   <si>
-    <t>{'es', 'en', 'fr'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'gl', 'pt', 'es', 'en', 'oc', 'mt', 'cs'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'pt', 'es', 'en', 'zh', 'pl'}</t>
-  </si>
-  <si>
-    <t>{'nl', 'unknown', 'ca', 'es', 'en', 'zh'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'gl', 'es', 'en', 'fr', 'af', 'la'}</t>
-  </si>
-  <si>
-    <t>{'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'gl', 'pt', 'es', 'en', 'tl', 'hu'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'it', 'pt', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'it', 'ca', 'pt', 'sk', 'es', 'en', 'mt', 'fr', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'mg', 'ca', 'it', 'gl', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'unknown', 'pt', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'unknown', 'an', 'sw', 'it', 'gl', 'pt', 'es', 'en', 'tl', 'de', 'zh', 'eo', 'ga', 'se'}</t>
-  </si>
-  <si>
-    <t>{'nl', 'unknown', 'ca', 'it', 'gl', 'pt', 'es', 'en', 'de', 'la'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'et', 'unknown', 'it', 'en'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'unknown', 'an', 'it', 'ca', 'gl', 'es', 'en', 'br'}</t>
-  </si>
-  <si>
-    <t>{'nl', 'unknown', 'ca', 'es', 'en', 'oc', 'mt'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'pt', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'it', 'gl', 'es', 'en', 'hu'}</t>
-  </si>
-  <si>
-    <t>{'an', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'nl', 'unknown', 'gl', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'jv', 'unknown', 'mg', 'gl', 'pt', 'es', 'en', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'gl', 'es', 'en', 'hu', 'fr', 'fi', 'ja'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'si', 'ca', 'pt', 'es', 'en', 'de', 'fr', 'ja'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'gl', 'pt', 'es', 'en', 'mr', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'pt', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'es', 'en', 'unknown', 'pl'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'unknown', 'gl', 'pt', 'es', 'en', 'de', 'lt', 'fr', 'hu'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'pt', 'es', 'en', 'oc'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'ca', 'gl', 'pt', 'es', 'en', 'lt'}</t>
-  </si>
-  <si>
-    <t>{'an', 'es', 'en', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'es', 'en', 'oc'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'gl', 'pt', 'es', 'en', 'zh'}</t>
-  </si>
-  <si>
-    <t>{'es', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'unknown', 'gl', 'es', 'en', 'cy', 'cs'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'unknown', 'an', 'es', 'en', 'fr', 'fi'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'pt', 'es', 'en', 'is', 'af'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'id', 'it', 'pt', 'es', 'en', 'lt'}</t>
-  </si>
-  <si>
-    <t>{'es', 'en', 'ca', 'it'}</t>
-  </si>
-  <si>
-    <t>{'en', 'la', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'unknown', 'it', 'es', 'en', 'eo', 'pl'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'pt', 'es', 'en', 'sl', 'fr', 'eo', 'fo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'pt', 'en', 'zh', 'la'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'es', 'en', 'oc', 'lt'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'sw', 'gl', 'pt', 'es', 'en', 'hu', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'it', 'es', 'en', 'de', 'fa', 'fr', 'da'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'de', 'en', 'no', 'az', 'fi', 'tr', 'la', 'ja', 'fo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'gl', 'zu', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'nl', 'unknown', 'es', 'en', 'de', 'fr', 'sv', 'pl'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'es', 'en', 'ro'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'en', 'zh', 'tr', 'pl'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'gl', 'pt', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'it', 'ca', 'gl', 'es', 'en', 'zh'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'et', 'af', 'it', 'de', 'en', 'no', 'tl', 'fr', 'sl', 'zh', 'br', 'ja'}</t>
-  </si>
-  <si>
-    <t>{'es', 'en', 'unknown', 'hu'}</t>
-  </si>
-  <si>
-    <t>{'vi', 'unknown', 'de', 'en', 'fr', 'af'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'it', 'de', 'en', 'tl', 'es', 'fr', 'af'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'it', 'pt', 'de', 'en', 'es', 'fr', 'eo', 'ja'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ru', 'it', 'de', 'en', 'es', 'fr', 'hu', 'tr', 'da'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'pt', 'es', 'en', 'hu'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'gl', 'pt', 'es', 'en', 'oc', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'ru', 'pt', 'es', 'en', 'hu', 'zh', 'la'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'es', 'en', 'zh'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'cs', 'ca', 'gl', 'sk', 'es', 'en', 'he', 'mr', 'hu', 'lt', 'fr', 'tl', 'la'}</t>
+    <t>{'unknown', 'en', 'es', 'gl'}</t>
+  </si>
+  <si>
+    <t>{'en', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'oc', 'es', 'cs', 'zh', 'pt', 'mt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'pl', 'unknown', 'es', 'zh', 'pt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'es', 'zh', 'ca'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'la', 'af', 'an', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'sw', 'es', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'it', 'unknown', 'es', 'pt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'it', 'unknown', 'mt', 'pt', 'sk', 'eo', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'it', 'gl', 'unknown', 'mg', 'sk', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'eu', 'unknown', 'es', 'pt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'eu', 'gl', 'unknown', 'tl', 'de', 'se', 'pt', 'zh', 'sw', 'eo', 'es', 'an', 'ga'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'nl', 'gl', 'unknown', 'de', 'es', 'la', 'pt', 'ca'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'unknown', 'de'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'it', 'eu', 'gl', 'unknown', 'br', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'nl', 'unknown', 'oc', 'es', 'mt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'es', 'pt', 'ca'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'gl', 'unknown', 'es', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'nl', 'gl', 'unknown', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'mg', 'pt', 'jv', 'eo', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'gl', 'unknown', 'ja', 'es', 'an', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'de', 'si', 'es', 'pt', 'ja', 'ca', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'mr', 'gl', 'unknown', 'es', 'pt', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'es', 'pt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'pl', 'es', 'unknown'}</t>
+  </si>
+  <si>
+    <t>{'en', 'eu', 'gl', 'unknown', 'de', 'es', 'lt', 'pt', 'fr', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'pt', 'oc', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'es', 'pt', 'ca', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'es', 'oc', 'ca', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'gl', 'unknown', 'pt', 'zh', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'cy', 'it', 'eu', 'gl', 'unknown', 'cs', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'eu', 'gl', 'unknown', 'an', 'fi', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'es', 'pt', 'is', 'af'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'unknown', 'lt', 'pt', 'id', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'hi', 'pl', 'unknown', 'ru', 'mt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'eu', 'unknown', 'eo', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'fo', 'sl', 'eo', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'unknown', 'de', 'pt', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'lt', 'oc', 'es'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'en', 'pt', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'es', 'an', 'ca', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'es', 'sw', 'eo', 'pt', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'tr', 'no', 'az', 'de', 'ja', 'fo', 'es', 'fi'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'zu', 'es', 'ca'}</t>
+  </si>
+  <si>
+    <t>{'en', 'pl', 'nl', 'unknown', 'tl', 'de', 'sv', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'ro', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'zh', 'unknown', 'pl'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'gl', 'unknown', 'es', 'pt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'it', 'gl', 'unknown', 'zh', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'pl', 'it', 'unknown', 'no', 'tl', 'de', 'et', 'ja', 'br', 'zh', 'af', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'es', 'unknown', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'tr', 'de', 'vi', 'af'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'unknown', 'tl', 'de', 'es', 'af', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'unknown', 'tr', 'de', 'ko', 'zh', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'da', 'it', 'unknown', 'tr', 'ru', 'de', 'es', 'fr', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'es', 'pt', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'gl', 'unknown', 'es', 'oc', 'eo', 'pt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'ru', 'la', 'pt', 'zh', 'es', 'an', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'zh', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'lv', 'it', 'ca', 'lb', 'mr', 'gl', 'unknown', 'he', 'la', 'lt', 'sk', 'es', 'hu'}</t>
   </si>
 </sst>
 </file>
@@ -2315,7 +2267,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K162"/>
+  <dimension ref="A1:K156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2361,10 +2313,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="E2">
         <v>200</v>
@@ -2379,13 +2331,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="J2" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K2" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2396,16 +2348,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="E3">
         <v>200</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2414,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="J3" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K3" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2431,31 +2383,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="E4">
         <v>200</v>
       </c>
       <c r="F4">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="J4" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K4" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2466,31 +2418,31 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="E5">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="J5" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K5" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2501,31 +2453,31 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D6" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="E6">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F6">
-        <v>0.0101010101010101</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
+        <v>475</v>
+      </c>
+      <c r="J6" t="s">
+        <v>488</v>
+      </c>
+      <c r="K6" t="s">
         <v>495</v>
-      </c>
-      <c r="J6" t="s">
-        <v>506</v>
-      </c>
-      <c r="K6" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2536,31 +2488,31 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E7">
         <v>200</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="J7" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K7" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2571,31 +2523,31 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D8" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E8">
         <v>200</v>
       </c>
       <c r="F8">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="J8" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K8" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2606,31 +2558,31 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="E9">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J9" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K9" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2641,16 +2593,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E10">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F10">
-        <v>0.005025125628140704</v>
+        <v>0.005</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2659,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J10" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K10" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2676,10 +2628,10 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D11" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="E11">
         <v>200</v>
@@ -2694,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J11" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K11" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2711,31 +2663,31 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="E12">
         <v>200</v>
       </c>
       <c r="F12">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J12" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K12" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2746,13 +2698,13 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D13" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="E13">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2764,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J13" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K13" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2781,13 +2733,13 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D14" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="E14">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2799,13 +2751,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J14" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K14" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2816,31 +2768,31 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D15" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="E15">
         <v>200</v>
       </c>
       <c r="F15">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J15" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K15" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2851,10 +2803,10 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D16" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="E16">
         <v>200</v>
@@ -2869,13 +2821,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J16" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K16" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2886,13 +2838,13 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D17" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="E17">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2904,13 +2856,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J17" t="s">
+        <v>488</v>
+      </c>
+      <c r="K17" t="s">
         <v>506</v>
-      </c>
-      <c r="K17" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2921,13 +2873,13 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D18" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="E18">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2939,13 +2891,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J18" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K18" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2956,31 +2908,31 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D19" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="E19">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J19" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K19" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2991,31 +2943,31 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D20" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E20">
         <v>200</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J20" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K20" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -3026,31 +2978,31 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D21" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="E21">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F21">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J21" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K21" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -3061,31 +3013,31 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D22" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E22">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F22">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J22" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K22" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3096,13 +3048,13 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D23" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E23">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3114,13 +3066,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J23" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K23" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3131,10 +3083,10 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D24" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="E24">
         <v>200</v>
@@ -3149,13 +3101,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J24" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K24" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3166,10 +3118,10 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D25" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="E25">
         <v>200</v>
@@ -3184,13 +3136,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J25" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K25" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3201,10 +3153,10 @@
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D26" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="E26">
         <v>200</v>
@@ -3219,13 +3171,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J26" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K26" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3236,31 +3188,31 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D27" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E27">
         <v>200</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J27" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K27" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3271,31 +3223,31 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D28" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E28">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J28" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K28" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3306,16 +3258,16 @@
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D29" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="E29">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F29">
-        <v>0.005</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -3324,13 +3276,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J29" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K29" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3341,31 +3293,31 @@
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D30" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="E30">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="F30">
-        <v>0.005291005291005291</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J30" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K30" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3376,10 +3328,10 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D31" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="E31">
         <v>200</v>
@@ -3394,13 +3346,13 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J31" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K31" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3411,10 +3363,10 @@
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D32" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="E32">
         <v>200</v>
@@ -3429,13 +3381,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J32" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K32" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3446,31 +3398,31 @@
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D33" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="E33">
         <v>200</v>
       </c>
       <c r="F33">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J33" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K33" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3481,10 +3433,10 @@
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D34" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="E34">
         <v>200</v>
@@ -3499,13 +3451,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J34" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K34" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3516,10 +3468,10 @@
         <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D35" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="E35">
         <v>200</v>
@@ -3534,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J35" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K35" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3551,10 +3503,10 @@
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D36" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="E36">
         <v>200</v>
@@ -3569,13 +3521,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J36" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K36" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3586,10 +3538,10 @@
         <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D37" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="E37">
         <v>200</v>
@@ -3604,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J37" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K37" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3621,31 +3573,31 @@
         <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D38" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="E38">
         <v>200</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J38" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K38" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3656,31 +3608,31 @@
         <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D39" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="E39">
         <v>200</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J39" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K39" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3691,10 +3643,10 @@
         <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D40" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="E40">
         <v>200</v>
@@ -3709,13 +3661,13 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J40" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K40" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3726,31 +3678,31 @@
         <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D41" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E41">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F41">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J41" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K41" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3761,31 +3713,31 @@
         <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D42" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E42">
         <v>200</v>
       </c>
       <c r="F42">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J42" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K42" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3796,13 +3748,13 @@
         <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D43" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="E43">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -3814,13 +3766,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J43" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K43" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3831,31 +3783,31 @@
         <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D44" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="E44">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J44" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K44" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3866,31 +3818,31 @@
         <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D45" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E45">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J45" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K45" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3901,16 +3853,16 @@
         <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D46" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="E46">
         <v>200</v>
       </c>
       <c r="F46">
-        <v>0.025</v>
+        <v>0.005</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -3919,13 +3871,13 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J46" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K46" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3936,16 +3888,16 @@
         <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D47" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E47">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F47">
-        <v>0.005050505050505051</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -3954,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J47" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K47" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3971,31 +3923,31 @@
         <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D48" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="E48">
         <v>200</v>
       </c>
       <c r="F48">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J48" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K48" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -4006,16 +3958,16 @@
         <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D49" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="E49">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F49">
-        <v>0.005025125628140704</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4024,13 +3976,13 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J49" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K49" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -4041,31 +3993,31 @@
         <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D50" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="E50">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J50" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K50" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -4076,31 +4028,31 @@
         <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D51" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="E51">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F51">
-        <v>0.005128205128205128</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J51" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K51" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -4111,31 +4063,31 @@
         <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D52" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="E52">
         <v>200</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J52" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K52" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -4146,16 +4098,16 @@
         <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D53" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="E53">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F53">
-        <v>0.005050505050505051</v>
+        <v>0.005</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -4164,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J53" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K53" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -4181,31 +4133,31 @@
         <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D54" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E54">
         <v>200</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J54" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K54" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -4216,16 +4168,16 @@
         <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D55" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="E55">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F55">
-        <v>0.005025125628140704</v>
+        <v>0.005</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -4234,13 +4186,13 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J55" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K55" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -4251,31 +4203,31 @@
         <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D56" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="E56">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F56">
-        <v>0.005235602094240838</v>
+        <v>0.67</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="J56" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K56" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -4286,16 +4238,16 @@
         <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D57" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="E57">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F57">
-        <v>0.005</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -4304,13 +4256,13 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J57" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K57" t="s">
-        <v>515</v>
+        <v>546</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -4321,31 +4273,31 @@
         <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D58" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="E58">
         <v>200</v>
       </c>
       <c r="F58">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J58" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K58" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4356,31 +4308,31 @@
         <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D59" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="E59">
         <v>200</v>
       </c>
       <c r="F59">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J59" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K59" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4391,31 +4343,31 @@
         <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D60" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="E60">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="F60">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="J60" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K60" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4426,16 +4378,16 @@
         <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D61" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="E61">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F61">
-        <v>0.005050505050505051</v>
+        <v>0.005</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -4444,13 +4396,13 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J61" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K61" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4461,31 +4413,31 @@
         <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D62" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="E62">
         <v>200</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J62" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K62" t="s">
-        <v>563</v>
+        <v>527</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4496,13 +4448,13 @@
         <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D63" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="E63">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -4514,13 +4466,13 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J63" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K63" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4531,31 +4483,31 @@
         <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D64" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="E64">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J64" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K64" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4566,16 +4518,16 @@
         <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D65" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="E65">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F65">
-        <v>0.005025125628140704</v>
+        <v>0.005</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -4584,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J65" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K65" t="s">
-        <v>566</v>
+        <v>495</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4601,31 +4553,31 @@
         <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D66" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E66">
         <v>200</v>
       </c>
       <c r="F66">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J66" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K66" t="s">
-        <v>510</v>
+        <v>553</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4636,31 +4588,31 @@
         <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D67" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E67">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J67" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K67" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4671,16 +4623,16 @@
         <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D68" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="E68">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F68">
-        <v>0.005076142131979695</v>
+        <v>0.025</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -4689,13 +4641,13 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J68" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K68" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4706,31 +4658,31 @@
         <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D69" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E69">
         <v>200</v>
       </c>
       <c r="F69">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J69" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K69" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4741,13 +4693,13 @@
         <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D70" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E70">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -4759,13 +4711,13 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J70" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K70" t="s">
-        <v>570</v>
+        <v>504</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4776,10 +4728,10 @@
         <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D71" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E71">
         <v>200</v>
@@ -4794,13 +4746,13 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J71" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K71" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4811,31 +4763,31 @@
         <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D72" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="E72">
         <v>200</v>
       </c>
       <c r="F72">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J72" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K72" t="s">
-        <v>519</v>
+        <v>558</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4846,16 +4798,16 @@
         <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D73" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="E73">
         <v>200</v>
       </c>
       <c r="F73">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -4864,13 +4816,13 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J73" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K73" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4881,13 +4833,13 @@
         <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D74" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="E74">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -4899,13 +4851,13 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J74" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K74" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4916,31 +4868,31 @@
         <v>83</v>
       </c>
       <c r="C75" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D75" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="E75">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J75" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K75" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4951,31 +4903,31 @@
         <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D76" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E76">
         <v>200</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J76" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K76" t="s">
-        <v>574</v>
+        <v>527</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4986,10 +4938,10 @@
         <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D77" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="E77">
         <v>200</v>
@@ -5004,13 +4956,13 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J77" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K77" t="s">
-        <v>575</v>
+        <v>504</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -5021,16 +4973,16 @@
         <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D78" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E78">
         <v>200</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -5039,13 +4991,13 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="J78" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K78" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -5056,31 +5008,31 @@
         <v>87</v>
       </c>
       <c r="C79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D79" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E79">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F79">
-        <v>0.005025125628140704</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J79" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K79" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -5091,31 +5043,31 @@
         <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D80" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="E80">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F80">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J80" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K80" t="s">
-        <v>510</v>
+        <v>564</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -5126,31 +5078,31 @@
         <v>89</v>
       </c>
       <c r="C81" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D81" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="E81">
         <v>200</v>
       </c>
       <c r="F81">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J81" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K81" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -5161,31 +5113,31 @@
         <v>90</v>
       </c>
       <c r="C82" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D82" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="E82">
         <v>200</v>
       </c>
       <c r="F82">
-        <v>0.025</v>
+        <v>0.24</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="J82" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K82" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -5196,13 +5148,13 @@
         <v>91</v>
       </c>
       <c r="C83" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D83" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="E83">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -5214,13 +5166,13 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J83" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="K83" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -5231,31 +5183,31 @@
         <v>92</v>
       </c>
       <c r="C84" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D84" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="E84">
         <v>200</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="J84" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K84" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -5266,31 +5218,31 @@
         <v>93</v>
       </c>
       <c r="C85" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D85" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="E85">
         <v>200</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>0.395</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="J85" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K85" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -5301,16 +5253,16 @@
         <v>94</v>
       </c>
       <c r="C86" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D86" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="E86">
         <v>200</v>
       </c>
       <c r="F86">
-        <v>0.24</v>
+        <v>0.005</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -5319,13 +5271,13 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="J86" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K86" t="s">
-        <v>583</v>
+        <v>505</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -5336,13 +5288,13 @@
         <v>95</v>
       </c>
       <c r="C87" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D87" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -5354,13 +5306,13 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J87" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="K87" t="s">
-        <v>584</v>
+        <v>497</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -5371,31 +5323,31 @@
         <v>96</v>
       </c>
       <c r="C88" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D88" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="E88">
         <v>200</v>
       </c>
       <c r="F88">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="J88" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K88" t="s">
-        <v>519</v>
+        <v>570</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -5406,31 +5358,31 @@
         <v>97</v>
       </c>
       <c r="C89" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D89" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="E89">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F89">
-        <v>0.36</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="J89" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K89" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -5441,31 +5393,31 @@
         <v>98</v>
       </c>
       <c r="C90" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D90" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="E90">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F90">
-        <v>0.005</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="J90" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K90" t="s">
-        <v>534</v>
+        <v>572</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -5476,31 +5428,31 @@
         <v>99</v>
       </c>
       <c r="C91" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D91" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="E91">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J91" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K91" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -5511,31 +5463,31 @@
         <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D92" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="E92">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>0.405</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="J92" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K92" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -5546,10 +5498,10 @@
         <v>101</v>
       </c>
       <c r="C93" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D93" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="E93">
         <v>200</v>
@@ -5564,13 +5516,13 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J93" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K93" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -5581,16 +5533,16 @@
         <v>102</v>
       </c>
       <c r="C94" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D94" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="E94">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F94">
-        <v>0.005050505050505051</v>
+        <v>0.005</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -5599,13 +5551,13 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J94" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K94" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5616,31 +5568,31 @@
         <v>103</v>
       </c>
       <c r="C95" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D95" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E95">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F95">
-        <v>0.02010050251256281</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J95" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K95" t="s">
-        <v>589</v>
+        <v>497</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5651,31 +5603,31 @@
         <v>104</v>
       </c>
       <c r="C96" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D96" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E96">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F96">
-        <v>0.405</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="J96" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K96" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5686,31 +5638,31 @@
         <v>105</v>
       </c>
       <c r="C97" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D97" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E97">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J97" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K97" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5721,10 +5673,10 @@
         <v>106</v>
       </c>
       <c r="C98" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D98" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="E98">
         <v>200</v>
@@ -5739,13 +5691,13 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J98" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K98" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5756,13 +5708,13 @@
         <v>107</v>
       </c>
       <c r="C99" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D99" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="E99">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -5774,13 +5726,13 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J99" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="K99" t="s">
-        <v>515</v>
+        <v>567</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5791,31 +5743,31 @@
         <v>108</v>
       </c>
       <c r="C100" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D100" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="E100">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F100">
-        <v>0.005025125628140704</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J100" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K100" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5826,31 +5778,31 @@
         <v>109</v>
       </c>
       <c r="C101" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D101" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="E101">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F101">
-        <v>0.005025125628140704</v>
+        <v>0.01</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="J101" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K101" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5861,31 +5813,31 @@
         <v>110</v>
       </c>
       <c r="C102" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D102" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="E102">
         <v>200</v>
       </c>
       <c r="F102">
-        <v>0.005</v>
+        <v>0.09</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I102" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="J102" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K102" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5896,31 +5848,31 @@
         <v>111</v>
       </c>
       <c r="C103" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D103" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J103" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="K103" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -5931,31 +5883,31 @@
         <v>112</v>
       </c>
       <c r="C104" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D104" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="E104">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J104" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K104" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5966,31 +5918,31 @@
         <v>113</v>
       </c>
       <c r="C105" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D105" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="E105">
         <v>200</v>
       </c>
       <c r="F105">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="G105">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="J105" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K105" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -6001,31 +5953,31 @@
         <v>114</v>
       </c>
       <c r="C106" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D106" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="E106">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="F106">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
       <c r="J106" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K106" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -6036,16 +5988,16 @@
         <v>115</v>
       </c>
       <c r="C107" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D107" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="E107">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F107">
-        <v>0.005076142131979695</v>
+        <v>0.005</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -6054,13 +6006,13 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J107" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K107" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -6071,16 +6023,16 @@
         <v>116</v>
       </c>
       <c r="C108" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D108" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E108">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="F108">
-        <v>0.007042253521126761</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -6089,13 +6041,13 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J108" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K108" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -6106,31 +6058,31 @@
         <v>117</v>
       </c>
       <c r="C109" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D109" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="E109">
         <v>200</v>
       </c>
       <c r="F109">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J109" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K109" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -6141,31 +6093,31 @@
         <v>118</v>
       </c>
       <c r="C110" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D110" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="E110">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J110" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K110" t="s">
-        <v>602</v>
+        <v>504</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -6176,31 +6128,31 @@
         <v>119</v>
       </c>
       <c r="C111" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D111" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="E111">
         <v>200</v>
       </c>
       <c r="F111">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J111" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K111" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -6211,16 +6163,16 @@
         <v>120</v>
       </c>
       <c r="C112" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D112" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="E112">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="F112">
-        <v>0.01219512195121951</v>
+        <v>0.005</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -6229,13 +6181,13 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J112" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K112" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -6246,10 +6198,10 @@
         <v>121</v>
       </c>
       <c r="C113" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D113" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="E113">
         <v>200</v>
@@ -6264,13 +6216,13 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J113" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K113" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -6281,31 +6233,31 @@
         <v>122</v>
       </c>
       <c r="C114" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D114" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E114">
         <v>200</v>
       </c>
       <c r="F114">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J114" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K114" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -6316,31 +6268,31 @@
         <v>123</v>
       </c>
       <c r="C115" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D115" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="E115">
         <v>200</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="J115" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K115" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -6351,10 +6303,10 @@
         <v>124</v>
       </c>
       <c r="C116" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D116" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="E116">
         <v>200</v>
@@ -6369,13 +6321,13 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J116" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K116" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -6386,31 +6338,31 @@
         <v>125</v>
       </c>
       <c r="C117" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D117" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="E117">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J117" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K117" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6421,31 +6373,31 @@
         <v>126</v>
       </c>
       <c r="C118" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D118" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="E118">
         <v>200</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J118" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K118" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6456,31 +6408,31 @@
         <v>127</v>
       </c>
       <c r="C119" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D119" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="E119">
         <v>200</v>
       </c>
       <c r="F119">
-        <v>0.5649999999999999</v>
+        <v>0</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>504</v>
+        <v>475</v>
       </c>
       <c r="J119" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K119" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -6491,10 +6443,10 @@
         <v>128</v>
       </c>
       <c r="C120" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D120" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="E120">
         <v>200</v>
@@ -6509,13 +6461,13 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J120" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K120" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -6526,31 +6478,31 @@
         <v>129</v>
       </c>
       <c r="C121" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D121" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="E121">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F121">
-        <v>0.0101010101010101</v>
+        <v>0</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J121" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K121" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -6561,31 +6513,31 @@
         <v>130</v>
       </c>
       <c r="C122" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D122" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="E122">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F122">
-        <v>0.005</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="J122" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K122" t="s">
-        <v>613</v>
+        <v>497</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -6596,31 +6548,31 @@
         <v>131</v>
       </c>
       <c r="C123" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D123" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="E123">
         <v>200</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J123" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K123" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -6631,10 +6583,10 @@
         <v>132</v>
       </c>
       <c r="C124" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D124" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="E124">
         <v>200</v>
@@ -6649,13 +6601,13 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J124" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K124" t="s">
-        <v>615</v>
+        <v>550</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6666,10 +6618,10 @@
         <v>133</v>
       </c>
       <c r="C125" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D125" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="E125">
         <v>200</v>
@@ -6684,13 +6636,13 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J125" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K125" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -6701,16 +6653,16 @@
         <v>134</v>
       </c>
       <c r="C126" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D126" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="E126">
         <v>199</v>
       </c>
       <c r="F126">
-        <v>0.005025125628140704</v>
+        <v>0.09547738693467336</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -6719,13 +6671,13 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="J126" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K126" t="s">
-        <v>515</v>
+        <v>603</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -6736,31 +6688,31 @@
         <v>135</v>
       </c>
       <c r="C127" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D127" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="E127">
         <v>200</v>
       </c>
       <c r="F127">
-        <v>0.04</v>
+        <v>0.005</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="J127" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K127" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -6771,10 +6723,10 @@
         <v>136</v>
       </c>
       <c r="C128" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D128" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="E128">
         <v>200</v>
@@ -6789,13 +6741,13 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J128" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K128" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -6806,31 +6758,31 @@
         <v>137</v>
       </c>
       <c r="C129" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D129" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E129">
         <v>200</v>
       </c>
       <c r="F129">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J129" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K129" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -6841,10 +6793,10 @@
         <v>138</v>
       </c>
       <c r="C130" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D130" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="E130">
         <v>200</v>
@@ -6859,13 +6811,13 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J130" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K130" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -6876,16 +6828,16 @@
         <v>139</v>
       </c>
       <c r="C131" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D131" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="E131">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F131">
-        <v>0.09547738693467336</v>
+        <v>0</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -6894,13 +6846,13 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="J131" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K131" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6911,31 +6863,31 @@
         <v>140</v>
       </c>
       <c r="C132" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D132" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="E132">
         <v>200</v>
       </c>
       <c r="F132">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J132" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K132" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6946,16 +6898,16 @@
         <v>141</v>
       </c>
       <c r="C133" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D133" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="E133">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="F133">
-        <v>0.005</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -6964,13 +6916,13 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J133" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K133" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -6981,31 +6933,31 @@
         <v>142</v>
       </c>
       <c r="C134" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D134" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="E134">
         <v>200</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>0.655</v>
       </c>
       <c r="G134">
         <v>0</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J134" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K134" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -7016,10 +6968,10 @@
         <v>143</v>
       </c>
       <c r="C135" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D135" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="E135">
         <v>200</v>
@@ -7034,13 +6986,13 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J135" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K135" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -7051,16 +7003,16 @@
         <v>144</v>
       </c>
       <c r="C136" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D136" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="E136">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -7069,13 +7021,13 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="J136" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K136" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -7086,31 +7038,31 @@
         <v>145</v>
       </c>
       <c r="C137" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D137" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E137">
         <v>200</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G137">
         <v>0</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="J137" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K137" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -7121,16 +7073,16 @@
         <v>146</v>
       </c>
       <c r="C138" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D138" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E138">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="F138">
-        <v>0.02325581395348837</v>
+        <v>0.005</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -7139,13 +7091,13 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J138" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K138" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -7156,31 +7108,31 @@
         <v>147</v>
       </c>
       <c r="C139" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D139" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="E139">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F139">
-        <v>0.655</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="J139" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K139" t="s">
-        <v>534</v>
+        <v>616</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -7191,31 +7143,31 @@
         <v>148</v>
       </c>
       <c r="C140" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D140" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="E140">
         <v>200</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J140" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K140" t="s">
-        <v>515</v>
+        <v>617</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -7226,16 +7178,16 @@
         <v>149</v>
       </c>
       <c r="C141" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D141" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="E141">
         <v>200</v>
       </c>
       <c r="F141">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -7244,13 +7196,13 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="J141" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K141" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -7261,31 +7213,31 @@
         <v>150</v>
       </c>
       <c r="C142" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D142" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E142">
         <v>200</v>
       </c>
       <c r="F142">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J142" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K142" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -7296,31 +7248,31 @@
         <v>151</v>
       </c>
       <c r="C143" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D143" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="E143">
         <v>200</v>
       </c>
       <c r="F143">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="J143" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K143" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -7331,31 +7283,31 @@
         <v>152</v>
       </c>
       <c r="C144" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D144" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E144">
         <v>200</v>
       </c>
       <c r="F144">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="J144" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K144" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -7366,16 +7318,16 @@
         <v>153</v>
       </c>
       <c r="C145" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D145" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="E145">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F145">
-        <v>0.00510204081632653</v>
+        <v>0.005</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -7384,13 +7336,13 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J145" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K145" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -7401,10 +7353,10 @@
         <v>154</v>
       </c>
       <c r="C146" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D146" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="E146">
         <v>200</v>
@@ -7413,19 +7365,19 @@
         <v>0.005</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="J146" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K146" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -7436,16 +7388,16 @@
         <v>155</v>
       </c>
       <c r="C147" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="D147" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="E147">
         <v>200</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -7454,13 +7406,13 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="J147" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K147" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -7471,13 +7423,13 @@
         <v>156</v>
       </c>
       <c r="C148" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D148" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="E148">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -7489,13 +7441,13 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J148" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K148" t="s">
-        <v>635</v>
+        <v>574</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -7506,16 +7458,16 @@
         <v>157</v>
       </c>
       <c r="C149" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D149" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="E149">
         <v>200</v>
       </c>
       <c r="F149">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -7524,13 +7476,13 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J149" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K149" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -7541,31 +7493,31 @@
         <v>158</v>
       </c>
       <c r="C150" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D150" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="E150">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F150">
-        <v>0.005</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="J150" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K150" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -7576,31 +7528,31 @@
         <v>159</v>
       </c>
       <c r="C151" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D151" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="E151">
         <v>200</v>
       </c>
       <c r="F151">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J151" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K151" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -7611,16 +7563,16 @@
         <v>160</v>
       </c>
       <c r="C152" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D152" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E152">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F152">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -7629,13 +7581,13 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="J152" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K152" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -7646,10 +7598,10 @@
         <v>161</v>
       </c>
       <c r="C153" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D153" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="E153">
         <v>200</v>
@@ -7661,16 +7613,16 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="J153" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K153" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -7681,31 +7633,31 @@
         <v>162</v>
       </c>
       <c r="C154" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D154" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="E154">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J154" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K154" t="s">
-        <v>590</v>
+        <v>516</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -7716,31 +7668,31 @@
         <v>163</v>
       </c>
       <c r="C155" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D155" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="E155">
         <v>200</v>
       </c>
       <c r="F155">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155">
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J155" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K155" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -7751,241 +7703,31 @@
         <v>164</v>
       </c>
       <c r="C156" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D156" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="E156">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F156">
-        <v>0.0101010101010101</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="J156" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K156" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157" t="s">
-        <v>165</v>
-      </c>
-      <c r="C157" t="s">
-        <v>325</v>
-      </c>
-      <c r="D157" t="s">
-        <v>486</v>
-      </c>
-      <c r="E157">
-        <v>200</v>
-      </c>
-      <c r="F157">
-        <v>0</v>
-      </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-      <c r="H157">
-        <v>0</v>
-      </c>
-      <c r="I157" t="s">
-        <v>493</v>
-      </c>
-      <c r="J157" t="s">
-        <v>506</v>
-      </c>
-      <c r="K157" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158" t="s">
-        <v>166</v>
-      </c>
-      <c r="C158" t="s">
-        <v>326</v>
-      </c>
-      <c r="D158" t="s">
-        <v>487</v>
-      </c>
-      <c r="E158">
-        <v>198</v>
-      </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
-      <c r="G158">
-        <v>0</v>
-      </c>
-      <c r="H158">
-        <v>0</v>
-      </c>
-      <c r="I158" t="s">
-        <v>493</v>
-      </c>
-      <c r="J158" t="s">
-        <v>506</v>
-      </c>
-      <c r="K158" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159" t="s">
-        <v>167</v>
-      </c>
-      <c r="C159" t="s">
-        <v>327</v>
-      </c>
-      <c r="D159" t="s">
-        <v>488</v>
-      </c>
-      <c r="E159">
-        <v>200</v>
-      </c>
-      <c r="F159">
-        <v>0.01</v>
-      </c>
-      <c r="G159">
-        <v>0</v>
-      </c>
-      <c r="H159">
-        <v>1</v>
-      </c>
-      <c r="I159" t="s">
-        <v>504</v>
-      </c>
-      <c r="J159" t="s">
-        <v>506</v>
-      </c>
-      <c r="K159" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160" t="s">
-        <v>168</v>
-      </c>
-      <c r="C160" t="s">
-        <v>328</v>
-      </c>
-      <c r="D160" t="s">
-        <v>489</v>
-      </c>
-      <c r="E160">
-        <v>200</v>
-      </c>
-      <c r="F160">
-        <v>0.01</v>
-      </c>
-      <c r="G160">
-        <v>1</v>
-      </c>
-      <c r="H160">
-        <v>0</v>
-      </c>
-      <c r="I160" t="s">
-        <v>493</v>
-      </c>
-      <c r="J160" t="s">
-        <v>506</v>
-      </c>
-      <c r="K160" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161" t="s">
-        <v>169</v>
-      </c>
-      <c r="C161" t="s">
-        <v>329</v>
-      </c>
-      <c r="D161" t="s">
-        <v>490</v>
-      </c>
-      <c r="E161">
-        <v>200</v>
-      </c>
-      <c r="F161">
-        <v>0</v>
-      </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-      <c r="H161">
-        <v>0</v>
-      </c>
-      <c r="I161" t="s">
-        <v>493</v>
-      </c>
-      <c r="J161" t="s">
-        <v>506</v>
-      </c>
-      <c r="K161" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162" t="s">
-        <v>170</v>
-      </c>
-      <c r="C162" t="s">
-        <v>330</v>
-      </c>
-      <c r="D162" t="s">
-        <v>491</v>
-      </c>
-      <c r="E162">
-        <v>200</v>
-      </c>
-      <c r="F162">
-        <v>0</v>
-      </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="H162">
-        <v>0</v>
-      </c>
-      <c r="I162" t="s">
-        <v>493</v>
-      </c>
-      <c r="J162" t="s">
-        <v>506</v>
-      </c>
-      <c r="K162" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
